--- a/calculation_food.xlsx
+++ b/calculation_food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Птица" sheetId="1" state="visible" r:id="rId2"/>
@@ -1423,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2823,10 +2823,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7072,8 +7072,8 @@
   </sheetPr>
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10260,7 +10260,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="50" t="s">
